--- a/assistente.xlsx
+++ b/assistente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA088B-4CAD-40BE-BC06-8C9421CC5CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC56F6-07DA-4F47-BA01-FBFD5390578A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Opção nº</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Total de Vagas</t>
-  </si>
-  <si>
-    <t>400039956</t>
   </si>
   <si>
     <t>40000007</t>
@@ -477,7 +474,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,33 +513,33 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>40003995</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -551,27 +548,27 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -586,27 +583,27 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -621,10 +618,10 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
